--- a/P_generosa/notes/draft_figures.xlsx
+++ b/P_generosa/notes/draft_figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sr320/Documents/GitHub/nb-2019/P_generosa/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE0FD23-C247-BE40-9530-70A10928FE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{222CD11A-E820-E840-B4C9-5ACA487A8EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="460" windowWidth="19420" windowHeight="16420" xr2:uid="{9F03430B-6000-894F-A9BE-586922C2C69B}"/>
+    <workbookView xWindow="10640" yWindow="1980" windowWidth="25500" windowHeight="17160" xr2:uid="{9F03430B-6000-894F-A9BE-586922C2C69B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>PGA_scaffold1__77_contigs__length_89643857</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t xml:space="preserve">  489064 analyses/zero_intersect_exon_u.txt</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Perc</t>
+  </si>
+  <si>
+    <t>intrageneic</t>
+  </si>
+  <si>
+    <t>Intragenic</t>
   </si>
 </sst>
 </file>
@@ -155,9 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +195,286 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-B52F-3A48-8DC8-D7825F4A4C3C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B52F-3A48-8DC8-D7825F4A4C3C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Intron</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Intragenic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.22703138023512712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26511581934673228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12996378070115056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B52F-3A48-8DC8-D7825F4A4C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="635123359"/>
+        <c:axId val="635125039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="635123359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635125039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635125039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635123359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -839,8 +1138,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1344,7 +1683,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC7AAAE-2105-9649-9D0E-755A43B660DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1682,15 +2567,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AA1C82-ECBB-4C47-8DF3-E9D3B96B0775}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <f>D4/E4</f>
+        <v>0.26511581934673228</v>
+      </c>
+      <c r="D4" s="1">
+        <v>391610</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1477128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">D5/E5</f>
+        <v>0.22703138023512712</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1942898</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8557839</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.2395974498779033</v>
+      </c>
+      <c r="D6" s="1">
+        <v>295433</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1233039</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <f>D7/E7</f>
+        <v>0.12996378070115056</v>
+      </c>
+      <c r="D7" s="1">
+        <v>738210</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5680121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.22703138023512712</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.26511581934673228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.12996378070115056</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
